--- a/Manuscript/Supp_PartsTable.xlsx
+++ b/Manuscript/Supp_PartsTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC8495F-2750-426A-874E-FA1098C1AD88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E20FE8-E8FE-4088-87C1-ABDB4CD9DC87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Part</t>
   </si>
@@ -80,6 +80,39 @@
   </si>
   <si>
     <t>635nm 60mW</t>
+  </si>
+  <si>
+    <t>AC254-150-A</t>
+  </si>
+  <si>
+    <t>Optomechanical cage plate</t>
+  </si>
+  <si>
+    <t>CP33/M</t>
+  </si>
+  <si>
+    <t>Fiber adapter</t>
+  </si>
+  <si>
+    <t>SM1FC</t>
+  </si>
+  <si>
+    <t>KM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi </t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>Lens Tube</t>
+  </si>
+  <si>
+    <t>XY translation mount</t>
+  </si>
+  <si>
+    <t>CXY1A</t>
   </si>
 </sst>
 </file>
@@ -397,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -451,6 +484,9 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -459,26 +495,41 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>38.04</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -486,24 +537,110 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>17.350000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>30.7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>183.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
